--- a/output/results220519.xlsx
+++ b/output/results220519.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FLOW\FLOW Documenten\GitHub\ktitanic\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B127B3-FDD1-4A11-A28E-2549367F353F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A9E9E4-25F0-4B2E-AE8C-E0DFB579167A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -110,7 +110,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
